--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Copia dell'atto di assenso del figlio</t>
+    <t>Copia dell'atto di assenso/dichiarazione del figlio</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,=,2</t>
@@ -419,10 +419,16 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+    <t>Assenso figlio</t>
+  </si>
+  <si>
+    <t>Assenso reso dinanzi a:</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>assensoReso</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
@@ -465,9 +471,6 @@
   </si>
   <si>
     <t>Figlio premorto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -541,16 +544,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.21875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -3321,1079 +3324,803 @@
         <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
         <v>23</v>
       </c>
     </row>
